--- a/data/trans_bre/P05B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.4349233961181868</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.4935011062157509</v>
+        <v>-0.4935011062157506</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4124276293485247</v>
@@ -649,7 +649,7 @@
         <v>-0.317072127094333</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.242613871061459</v>
+        <v>-0.2426138710614588</v>
       </c>
     </row>
     <row r="5">
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.244477679517469</v>
+        <v>-1.379793068340603</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.155637539626071</v>
+        <v>-4.145300259379199</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.108721648818547</v>
+        <v>-2.187979296437134</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.275604067523392</v>
+        <v>-2.336853604081855</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3403806045044238</v>
+        <v>-0.3620045181527597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.9377749418219716</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="n">
-        <v>-0.7598753963917263</v>
+        <v>-0.7403381472583364</v>
       </c>
     </row>
     <row r="6">
@@ -690,26 +690,26 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.548744041384363</v>
+        <v>4.209525495517116</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.1246409505240919</v>
+        <v>-0.1593991738820318</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.095211527472749</v>
+        <v>1.105215598775969</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.092237047281353</v>
+        <v>1.306400230337187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.022822490387648</v>
+        <v>1.87586418746305</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.517563859095189</v>
+        <v>0.1350603001974121</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.108147091435341</v>
+        <v>1.35408282576896</v>
       </c>
     </row>
     <row r="7">
@@ -756,26 +756,26 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.402126167595938</v>
+        <v>-2.620275048203457</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.082634394430242</v>
+        <v>-2.456958621613978</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.0555274828536057</v>
+        <v>-0.01643539750703939</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06353330034146414</v>
+        <v>0.0987766749829377</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.536887265421211</v>
+        <v>-0.5769430716451159</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6933152115715914</v>
+        <v>-0.7666985569875869</v>
       </c>
       <c r="I8" s="6" t="inlineStr"/>
       <c r="J8" s="6" t="n">
-        <v>-0.3218788607833102</v>
+        <v>-0.290734091543024</v>
       </c>
     </row>
     <row r="9">
@@ -786,28 +786,26 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.076358698108691</v>
+        <v>2.844979047939416</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.304759623672823</v>
+        <v>2.247321019567993</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.393577190256833</v>
+        <v>3.505803556199939</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.916152560301594</v>
+        <v>2.778283609565871</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.577402230854458</v>
+        <v>1.571699754640834</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.927466281816714</v>
+        <v>2.468790129719175</v>
       </c>
       <c r="I9" s="6" t="inlineStr"/>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J9" s="6" t="n">
+        <v>22.84988520056214</v>
       </c>
     </row>
     <row r="10">
@@ -854,23 +852,21 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9155810737691326</v>
+        <v>0.9732329991568813</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8435515611389501</v>
+        <v>-0.8035595986841683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.063342955915983</v>
+        <v>-1.765425428146381</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.304160029831122</v>
+        <v>-1.427338915964129</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2558587177024364</v>
-      </c>
-      <c r="H11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>0.2630315466365964</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
         <v>-1</v>
@@ -884,26 +880,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.700302855011019</v>
+        <v>9.073429200937323</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.507362205687371</v>
+        <v>2.41429734292307</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.1523128789618956</v>
+        <v>-0.1527570436453893</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.501692803086059</v>
+        <v>1.485962691893636</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.217691917939219</v>
-      </c>
-      <c r="H12" s="6" t="n">
-        <v>8.492098641244059</v>
-      </c>
+        <v>6.765688241241442</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>4.405807094493644</v>
+        <v>3.573083740094438</v>
       </c>
     </row>
     <row r="13">
@@ -927,7 +921,7 @@
         <v>0.4392823122052539</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3398288990564076</v>
+        <v>0.3398288990564073</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4151380331600565</v>
@@ -939,7 +933,7 @@
         <v>0.2055918127187449</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3894960745318742</v>
+        <v>0.3894960745318737</v>
       </c>
     </row>
     <row r="14">
@@ -950,28 +944,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.5209321611043005</v>
+        <v>-0.4829028458910755</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.7654855341351229</v>
+        <v>-0.6813327065333787</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.8583127829478855</v>
+        <v>-0.7838767721722243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.4341392219929981</v>
+        <v>-0.5514562843460519</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1489129475937685</v>
+        <v>-0.1337431565323617</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3484860715503066</v>
+        <v>-0.3269852443275052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3401413132480005</v>
+        <v>-0.3129354498816319</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.494972405393566</v>
+        <v>-0.4264989233122716</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +976,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.347988044877137</v>
+        <v>3.171641309497793</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.231628522002089</v>
+        <v>2.16605227609083</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.057824758075762</v>
+        <v>2.082135838341737</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.231879290772239</v>
+        <v>1.150228052641709</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.277757770148023</v>
+        <v>1.22672637268303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.831256629024981</v>
+        <v>1.595679725738341</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.263816418265029</v>
+        <v>1.252825128995854</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.261871373716457</v>
+        <v>2.481233369023913</v>
       </c>
     </row>
     <row r="16">
@@ -1027,7 +1021,7 @@
         <v>0.2707371894060007</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5143862708719351</v>
+        <v>0.514386270871935</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>1.457771163723114</v>
@@ -1039,7 +1033,7 @@
         <v>0.1722024883917802</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.552193643202427</v>
+        <v>0.5521936432024268</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1044,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6647943704388737</v>
+        <v>0.737597951002582</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.337567344113187</v>
+        <v>-1.38845097285771</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.237343813471701</v>
+        <v>-1.132725497016191</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.7663739157861023</v>
+        <v>-0.5449847753778534</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09112803597850461</v>
+        <v>0.1772952640609619</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.7799129686653364</v>
+        <v>-0.824506295918097</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5073438847286116</v>
+        <v>-0.5248763952978642</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5127890547972663</v>
+        <v>-0.4020159791451525</v>
       </c>
     </row>
     <row r="18">
@@ -1082,28 +1076,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.290628699607609</v>
+        <v>5.357753022219524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.103500561439131</v>
+        <v>1.100036369972003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.785458014443143</v>
+        <v>1.618594591657325</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.359684786417488</v>
+        <v>1.45422725465293</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4.5768839103381</v>
+        <v>5.135639627667396</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3.038304302962733</v>
+        <v>3.044570237871103</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>2.310002765001034</v>
+        <v>2.0023990511515</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3.302858666516041</v>
+        <v>3.299168361873388</v>
       </c>
     </row>
     <row r="19">
@@ -1152,22 +1146,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.223436831227332</v>
+        <v>-1.350443169246706</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.725150807914223</v>
+        <v>-2.278239909641808</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.078122897646895</v>
+        <v>0.9213676398921152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2948653048597021</v>
+        <v>0.2717213922900727</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2370603740343608</v>
+        <v>-0.2424909279647361</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7319228432394118</v>
+        <v>-0.6624418472386703</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="inlineStr"/>
@@ -1180,22 +1174,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.423987564637888</v>
+        <v>3.383983430799844</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.25256172548581</v>
+        <v>1.361084522933098</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.632389708037012</v>
+        <v>3.666965467377545</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.115755700927494</v>
+        <v>1.132401290237779</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.002778994515116</v>
+        <v>1.990016865040629</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.84315687198009</v>
+        <v>2.229816384549622</v>
       </c>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="inlineStr"/>
@@ -1221,7 +1215,7 @@
         <v>0.7819709052148285</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2372946051709795</v>
+        <v>0.2372946051709793</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5889320318999285</v>
@@ -1233,7 +1227,7 @@
         <v>0.5737704688816342</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2420367694453686</v>
+        <v>0.2420367694453684</v>
       </c>
     </row>
     <row r="23">
@@ -1244,28 +1238,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7453877460368892</v>
+        <v>0.8017339845735658</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6769828800309541</v>
+        <v>-0.698648219317734</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.177402336474056</v>
+        <v>0.1373330796430735</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2819747886744756</v>
+        <v>-0.2024202077654018</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.211978799852414</v>
+        <v>0.224387718379362</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3364630998088267</v>
+        <v>-0.3481862284725435</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1063443295748734</v>
+        <v>0.06923865496889256</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2339912940286451</v>
+        <v>-0.1756487662589078</v>
       </c>
     </row>
     <row r="24">
@@ -1276,28 +1270,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.665926989701976</v>
+        <v>2.643904276311558</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.709291934790619</v>
+        <v>0.5522529861707636</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.461624402676531</v>
+        <v>1.516115947689193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7153159995569011</v>
+        <v>0.7051210192298607</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.065608562339312</v>
+        <v>1.03792974572015</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5642249336401188</v>
+        <v>0.3888646625265623</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.511740452477258</v>
+        <v>1.457801442543417</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.016980226590867</v>
+        <v>1.003801778889402</v>
       </c>
     </row>
     <row r="25">
